--- a/blanket.xlsx
+++ b/blanket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Функциональное тестирование</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve"> Here Maps: Offline Mobile maps app </t>
   </si>
   <si>
-    <t>Дымовое тестирование</t>
-  </si>
-  <si>
     <t>Installation testing</t>
   </si>
   <si>
@@ -39,9 +36,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Stability / Reliability Testing</t>
-  </si>
-  <si>
     <t>GUI Testing</t>
   </si>
   <si>
@@ -69,9 +63,6 @@
     <t>Uninstal app.</t>
   </si>
   <si>
-    <t>The ability of the application to often rearrange the route of the user.</t>
-  </si>
-  <si>
     <t>The ability of the application to recover to its original location after a power failure.</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Ensure correct operation of the zoom-in and zoom-out system.</t>
   </si>
   <si>
-    <t>Make sure that the application can be terminated from any state and that it resumes operation in the same state.</t>
-  </si>
-  <si>
     <t>Check localization.</t>
   </si>
   <si>
@@ -114,9 +102,6 @@
     <t>Verify that the user's location is displayed correctly.</t>
   </si>
   <si>
-    <t>Failed</t>
-  </si>
-  <si>
     <t>Check the route building function.</t>
   </si>
   <si>
@@ -195,100 +180,88 @@
     <t>+</t>
   </si>
   <si>
-    <t>Одеяло</t>
-  </si>
-  <si>
-    <t>Тест</t>
-  </si>
-  <si>
-    <t>Тестирование установки</t>
-  </si>
-  <si>
-    <t>Приобрести одеяло.</t>
-  </si>
-  <si>
-    <t>Избавиться от одеяла.</t>
-  </si>
-  <si>
-    <t>Развернуть одеяло.</t>
-  </si>
-  <si>
-    <t>Тестирование пользовательского интерфейса</t>
-  </si>
-  <si>
-    <t>Тестирование безопасности</t>
-  </si>
-  <si>
-    <t>Тестирование взаимодействия</t>
-  </si>
-  <si>
-    <t>Нагрузочное тестирование</t>
-  </si>
-  <si>
-    <t>Стрессовое тестирование</t>
-  </si>
-  <si>
-    <t>Тестирование удобства пользования</t>
-  </si>
-  <si>
-    <t>Тестирование на отказ и восстановление</t>
-  </si>
-  <si>
-    <t>Регрессионное тестирование</t>
-  </si>
-  <si>
-    <t>Укрыть одеялом пользователя.</t>
-  </si>
-  <si>
-    <t>Положить пользователя на одеяло.</t>
-  </si>
-  <si>
-    <t>Оценить внешний вид. Проверить наличие элементов дающих радость пользователю.</t>
-  </si>
-  <si>
-    <t>Накрыть пользователя с головой. (Сможет ли он дышать?)</t>
-  </si>
-  <si>
-    <t>Обратить внимание на наличие аллергенов в составе.</t>
-  </si>
-  <si>
-    <t>Накрыть одеялом животное..</t>
-  </si>
-  <si>
-    <t>Проверить возможность использования пользователем и одеяла и подушки одновременно.</t>
-  </si>
-  <si>
-    <t>Есть ли возможность использовать пододеяльник?</t>
-  </si>
-  <si>
-    <t>Накрыть одеялом несколько пользователей одновременно.</t>
-  </si>
-  <si>
-    <t>Попробовать растянуть одеяло между пользователями.</t>
-  </si>
-  <si>
-    <t>Может ли пользователь ходить в одеяле.</t>
-  </si>
-  <si>
-    <t>Намочить одеяло</t>
-  </si>
-  <si>
-    <t>Поместить юзера и одеяло в комнату с низкой (высокой) температурой.</t>
-  </si>
-  <si>
-    <t>Проверить достаточный ли размер одеяла для пользователя.</t>
-  </si>
-  <si>
-    <t>Может ли пользователь самостоятельно передвинуть и воспользоваться предметом.</t>
-  </si>
-  <si>
-    <t>Порезать одеяло на кусочки. (Может ли оно восстановиться?)</t>
-  </si>
-  <si>
-    <t>Проверить функциональность одеяла после его восстановления (ремонта).</t>
-  </si>
-  <si>
-    <t>Может ли пользователь догадяться о предназначении предмата без инструкции и воспользоваться им?</t>
+    <t>Check the location of buttons and fields in the application.</t>
+  </si>
+  <si>
+    <t>Check the color selection of buttons and fields.</t>
+  </si>
+  <si>
+    <t>Check the ability of the application to route for the user in one area of the city with 300 key points.</t>
+  </si>
+  <si>
+    <t>A blanket</t>
+  </si>
+  <si>
+    <t>Security Testing</t>
+  </si>
+  <si>
+    <t>Interoperability Testing</t>
+  </si>
+  <si>
+    <t>Performance and Load Testing</t>
+  </si>
+  <si>
+    <t>Crash test</t>
+  </si>
+  <si>
+    <t>Regression Testing</t>
+  </si>
+  <si>
+    <t>Buy a blanket.</t>
+  </si>
+  <si>
+    <t>Get rid of the blanket.</t>
+  </si>
+  <si>
+    <t>Expand the blanket.</t>
+  </si>
+  <si>
+    <t>Appreciate the appearance.</t>
+  </si>
+  <si>
+    <t>Cover with the user's blanket. (Should be warm.)</t>
+  </si>
+  <si>
+    <t>Put the user on the blanket. (Should be soft.)</t>
+  </si>
+  <si>
+    <t>Cover the user with the head. (Will he be able to breathe?)</t>
+  </si>
+  <si>
+    <t>Pay attention to the presence of allergens in the composition.</t>
+  </si>
+  <si>
+    <t>Cover the blanket with an animal.</t>
+  </si>
+  <si>
+    <t>Check whether the user can use both blankets and pillows at the same time.</t>
+  </si>
+  <si>
+    <t>Is it possible to use a duvet cover?</t>
+  </si>
+  <si>
+    <t>Cover the blanket of two users at the same time.</t>
+  </si>
+  <si>
+    <t>Ask the two users to pull the blanket (each on itself).</t>
+  </si>
+  <si>
+    <t>Place the user and the blanket in a room with a low temperature (about 0 degrees Celsius).</t>
+  </si>
+  <si>
+    <t>Check whether the size of the blanket is sufficient for the user.</t>
+  </si>
+  <si>
+    <t>Can the user move and use the item himself?</t>
+  </si>
+  <si>
+    <t>Can the user guess the purpose of the item without instruction and use it?</t>
+  </si>
+  <si>
+    <t>Cut the blanket into pieces.</t>
+  </si>
+  <si>
+    <t>Check the functionality of the blanket after its completion (if the blanket is framed with a border / add appliqué).</t>
   </si>
 </sst>
 </file>
@@ -471,12 +444,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -485,62 +455,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,35 +492,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,218 +903,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D24"/>
+  <dimension ref="B1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" customWidth="1"/>
-    <col min="3" max="3" width="76.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="76.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="27"/>
+      <c r="C8" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27"/>
+      <c r="C9" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="27"/>
+      <c r="C10" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="27"/>
+      <c r="C11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="27"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="31"/>
+      <c r="C18" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27"/>
+      <c r="C20" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27"/>
+      <c r="C21" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27"/>
+      <c r="C22" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="28"/>
+      <c r="C23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
-      <c r="C5" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="35"/>
-    </row>
-    <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="10"/>
-      <c r="C10" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="10"/>
-      <c r="C11" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="35"/>
-    </row>
-    <row r="16" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="12"/>
-      <c r="C16" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="35"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="10"/>
-      <c r="C20" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="10"/>
-      <c r="C22" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="35"/>
+      <c r="C24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="31"/>
+      <c r="C25" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B7:B13"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B7:B12"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1148,8 +1131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,266 +1151,290 @@
         <v>1</v>
       </c>
       <c r="C1" s="1"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="20" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="18"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="18"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="2:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="H10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="C11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="28" t="s">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="C13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="28" t="s">
+      <c r="C15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1442,197 +1449,185 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C24"/>
+  <dimension ref="B1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
+      <c r="C5" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="43"/>
+      <c r="C8" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="44"/>
+      <c r="C11" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="C12" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="45"/>
+      <c r="C13" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="41"/>
+      <c r="C14" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="47" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="38" t="s">
+      <c r="C15" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="47"/>
+      <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="43"/>
+      <c r="C19" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="44"/>
+      <c r="C20" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C21" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="39"/>
-      <c r="C5" s="33" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="41"/>
-      <c r="C8" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="39"/>
-      <c r="C9" s="33" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="39"/>
-      <c r="C12" s="33" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-      <c r="C14" s="34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="46"/>
-      <c r="C15" s="34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="C22" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="41"/>
-      <c r="C17" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="46"/>
-      <c r="C19" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="41"/>
-      <c r="C21" s="47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="39"/>
-      <c r="C22" s="47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B22"/>
+  <mergeCells count="7">
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/blanket.xlsx
+++ b/blanket.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
   <si>
     <t>Функциональное тестирование</t>
   </si>
@@ -223,9 +223,6 @@
   </si>
   <si>
     <t>Put the user on the blanket. (Should be soft.)</t>
-  </si>
-  <si>
-    <t>Cover the user with the head. (Will he be able to breathe?)</t>
   </si>
   <si>
     <t>Pay attention to the presence of allergens in the composition.</t>
@@ -444,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -498,27 +495,34 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -543,33 +547,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,11 +917,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -951,7 +951,7 @@
       <c r="D4" s="10"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="18" t="s">
         <v>14</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="D6" s="20"/>
     </row>
     <row r="7" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="30" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -976,28 +976,28 @@
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="27"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="18" t="s">
         <v>28</v>
       </c>
@@ -1006,14 +1006,14 @@
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="27"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="18"/>
       <c r="D12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
@@ -1038,30 +1038,30 @@
       <c r="D15" s="10"/>
     </row>
     <row r="16" spans="2:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="20"/>
     </row>
     <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="20"/>
     </row>
     <row r="18" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="31"/>
+      <c r="B18" s="29"/>
       <c r="C18" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="20"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="31" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -1070,35 +1070,35 @@
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="18" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="2:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -1107,7 +1107,7 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="31"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="19" t="s">
         <v>54</v>
       </c>
@@ -1176,11 +1176,11 @@
       <c r="B3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
@@ -1192,11 +1192,11 @@
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -1205,7 +1205,7 @@
       <c r="K4" s="9"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1223,12 +1223,12 @@
       <c r="K5" s="8"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="21" t="s">
@@ -1449,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C22"/>
+  <dimension ref="B1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,10 +1462,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="25"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
@@ -1482,7 +1482,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="18" t="s">
         <v>64</v>
       </c>
@@ -1504,7 +1504,7 @@
       </c>
     </row>
     <row r="7" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="18" t="s">
@@ -1512,7 +1512,7 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="18" t="s">
         <v>68</v>
       </c>
@@ -1525,8 +1525,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="42" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="25" t="s">
         <v>58</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -1534,97 +1534,90 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="44"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="40" t="s">
-        <v>59</v>
-      </c>
+    <row r="12" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
       <c r="C12" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
       <c r="C13" s="19" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="41"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="B15" s="50"/>
       <c r="C15" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="47"/>
-      <c r="C16" s="18" t="s">
+    <row r="16" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="19" t="s">
+    <row r="17" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="42" t="s">
-        <v>3</v>
-      </c>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="44"/>
       <c r="C18" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="43"/>
+    <row r="19" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="45"/>
       <c r="C19" s="24" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="44"/>
-      <c r="C20" s="24" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="19" t="s">
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="6">
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
